--- a/report/Time-Budget_Estimate-TFG.xlsx
+++ b/report/Time-Budget_Estimate-TFG.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="159">
   <si>
     <t>Name</t>
   </si>
@@ -439,10 +439,13 @@
     <t>Space</t>
   </si>
   <si>
+    <t>Internet</t>
+  </si>
+  <si>
     <t>Electricity</t>
   </si>
   <si>
-    <t>Internet</t>
+    <t>Rent</t>
   </si>
   <si>
     <t>Total GC</t>
@@ -457,6 +460,9 @@
     <t>Risk (%)</t>
   </si>
   <si>
+    <t>Delay in hours</t>
+  </si>
+  <si>
     <t>Project Deadline</t>
   </si>
   <si>
@@ -473,9 +479,6 @@
   </si>
   <si>
     <t>Activity</t>
-  </si>
-  <si>
-    <t>Total CG</t>
   </si>
   <si>
     <t>Total CPA</t>
@@ -499,7 +502,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -544,6 +547,11 @@
       <color theme="1"/>
       <name val="Inconsolata"/>
     </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF1155CC"/>
+      <name val="&quot;Google Sans Mono&quot;"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -565,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -635,6 +643,10 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -2742,6 +2754,7 @@
     <col customWidth="1" min="2" max="2" width="21.88"/>
     <col customWidth="1" min="3" max="3" width="12.88"/>
     <col customWidth="1" min="4" max="4" width="17.63"/>
+    <col customWidth="1" min="9" max="9" width="13.88"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -3790,7 +3803,7 @@
       <c r="C62" s="6"/>
     </row>
     <row r="63">
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="10" t="s">
         <v>141</v>
       </c>
       <c r="C63" s="25">
@@ -3802,7 +3815,7 @@
       <c r="G63" s="7"/>
     </row>
     <row r="64">
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="10" t="s">
         <v>142</v>
       </c>
       <c r="C64" s="25">
@@ -3810,40 +3823,47 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="C65" s="18">
-        <f>SUM(C61:C64)</f>
-        <v>351.6330769</v>
+      <c r="C65" s="1">
+        <v>800.0</v>
       </c>
     </row>
     <row r="66">
-      <c r="B66" s="6"/>
-      <c r="C66" s="9"/>
+      <c r="B66" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="24">
+        <f>SUM(C62:C65)</f>
+        <v>1096.71</v>
+      </c>
       <c r="D66" s="9"/>
       <c r="E66" s="26"/>
       <c r="F66" s="23"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69">
       <c r="C69" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="H69" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="70">
       <c r="B70" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C70" s="14">
         <f>I28</f>
@@ -3856,10 +3876,18 @@
         <f t="shared" ref="E70:E73" si="7">C70*D70/100</f>
         <v>110.0652404</v>
       </c>
+      <c r="H70" s="3">
+        <f>D28*10/100</f>
+        <v>3.5</v>
+      </c>
+      <c r="I70" s="28">
+        <f>D28*20/100</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="71">
       <c r="B71" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C71" s="14">
         <f>I30</f>
@@ -3872,10 +3900,18 @@
         <f t="shared" si="7"/>
         <v>277.7832692</v>
       </c>
+      <c r="H71" s="3">
+        <f>D30*10/100</f>
+        <v>6</v>
+      </c>
+      <c r="I71" s="3">
+        <f>D30*20/100</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="72">
       <c r="B72" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C72" s="14">
         <f>I28</f>
@@ -3888,10 +3924,18 @@
         <f t="shared" si="7"/>
         <v>110.0652404</v>
       </c>
+      <c r="H72" s="3">
+        <f>D28*10/100</f>
+        <v>3.5</v>
+      </c>
+      <c r="I72" s="3">
+        <f>D28*20/100</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="73">
       <c r="B73" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C73" s="14">
         <f>I39</f>
@@ -3904,10 +3948,18 @@
         <f t="shared" si="7"/>
         <v>86.80727163</v>
       </c>
+      <c r="H73" s="3">
+        <f>D39*10/100</f>
+        <v>2.5</v>
+      </c>
+      <c r="I73" s="3">
+        <f>D39*20/100</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="D74" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E74" s="3">
         <f>SUM(E70:E73)</f>
@@ -3916,7 +3968,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>138</v>
@@ -3924,16 +3976,16 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B78" s="14">
-        <f>C65</f>
-        <v>351.6330769</v>
+        <v>144</v>
+      </c>
+      <c r="B78" s="3">
+        <f>C66</f>
+        <v>1096.71</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B79" s="14">
         <f>I50</f>
@@ -3942,16 +3994,16 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B80" s="27">
+        <v>156</v>
+      </c>
+      <c r="B80" s="29">
         <f>I50*15/100</f>
         <v>1939.469257</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B81" s="14">
         <f>E74</f>
@@ -3960,11 +4012,11 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B82" s="14">
+        <v>158</v>
+      </c>
+      <c r="B82" s="3">
         <f>SUM(B78:B81)</f>
-        <v>15805.6184</v>
+        <v>16550.69533</v>
       </c>
     </row>
   </sheetData>
